--- a/data/pca/factorExposure/factorExposure_2012-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01496742326612407</v>
+        <v>0.01420692376515551</v>
       </c>
       <c r="C2">
-        <v>-0.03067090948266803</v>
+        <v>0.02474228015273527</v>
       </c>
       <c r="D2">
-        <v>0.01577568112104351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01980473473787887</v>
+      </c>
+      <c r="E2">
+        <v>-0.01330496357872453</v>
+      </c>
+      <c r="F2">
+        <v>0.02635764246391465</v>
+      </c>
+      <c r="G2">
+        <v>-0.001510297440673367</v>
+      </c>
+      <c r="H2">
+        <v>0.03538732053867322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07446024133246115</v>
+        <v>0.08716184116675925</v>
       </c>
       <c r="C4">
-        <v>-0.05172444731646473</v>
+        <v>0.03549144690045854</v>
       </c>
       <c r="D4">
-        <v>0.08436565124107891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07130597799003012</v>
+      </c>
+      <c r="E4">
+        <v>-0.008022548384729631</v>
+      </c>
+      <c r="F4">
+        <v>0.03914354670488775</v>
+      </c>
+      <c r="G4">
+        <v>-0.008151520959013612</v>
+      </c>
+      <c r="H4">
+        <v>-0.0382944680544169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1127649623749122</v>
+        <v>0.1227129012894265</v>
       </c>
       <c r="C6">
-        <v>-0.04914098335380152</v>
+        <v>0.03245088684318088</v>
       </c>
       <c r="D6">
-        <v>0.004459920838209974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01216638474220198</v>
+      </c>
+      <c r="E6">
+        <v>0.02340144800774237</v>
+      </c>
+      <c r="F6">
+        <v>0.05173551804237208</v>
+      </c>
+      <c r="G6">
+        <v>-0.0377098952504249</v>
+      </c>
+      <c r="H6">
+        <v>0.1192752100984617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05388189057904648</v>
+        <v>0.06381312040512746</v>
       </c>
       <c r="C7">
-        <v>-0.02612917969733122</v>
+        <v>0.01339044040824027</v>
       </c>
       <c r="D7">
-        <v>0.03612229414636474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05037062807172955</v>
+      </c>
+      <c r="E7">
+        <v>-0.03455494859540564</v>
+      </c>
+      <c r="F7">
+        <v>0.04390682140184973</v>
+      </c>
+      <c r="G7">
+        <v>0.03715675683669379</v>
+      </c>
+      <c r="H7">
+        <v>-0.01286002399243201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04030690229420801</v>
+        <v>0.04285323682655845</v>
       </c>
       <c r="C8">
-        <v>-0.01348294304168549</v>
+        <v>0.009033248717218745</v>
       </c>
       <c r="D8">
-        <v>0.05822919540451205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02431029659010059</v>
+      </c>
+      <c r="E8">
+        <v>-0.0187531277172399</v>
+      </c>
+      <c r="F8">
+        <v>0.06413420944504829</v>
+      </c>
+      <c r="G8">
+        <v>-0.04921078207247834</v>
+      </c>
+      <c r="H8">
+        <v>0.01702062683263757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0689681888465635</v>
+        <v>0.07862351232112243</v>
       </c>
       <c r="C9">
-        <v>-0.03913917681013345</v>
+        <v>0.02355962292213834</v>
       </c>
       <c r="D9">
-        <v>0.07576672565074311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06562733488887265</v>
+      </c>
+      <c r="E9">
+        <v>-0.02743314732094523</v>
+      </c>
+      <c r="F9">
+        <v>0.02982074150931313</v>
+      </c>
+      <c r="G9">
+        <v>-0.01697363199807393</v>
+      </c>
+      <c r="H9">
+        <v>-0.0440531380299686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0318562881978019</v>
+        <v>0.04525624011467005</v>
       </c>
       <c r="C10">
-        <v>-0.02845569033609476</v>
+        <v>0.05746641499494585</v>
       </c>
       <c r="D10">
-        <v>-0.1755298351275926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1753607264996684</v>
+      </c>
+      <c r="E10">
+        <v>-0.04287977038664267</v>
+      </c>
+      <c r="F10">
+        <v>0.05250411575818473</v>
+      </c>
+      <c r="G10">
+        <v>0.03428218771898284</v>
+      </c>
+      <c r="H10">
+        <v>0.0468170972365711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07211208195030899</v>
+        <v>0.07668393156844248</v>
       </c>
       <c r="C11">
-        <v>-0.04145864431535295</v>
+        <v>0.02091760126253899</v>
       </c>
       <c r="D11">
-        <v>0.05859222944029717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06617669944028549</v>
+      </c>
+      <c r="E11">
+        <v>0.006078546699020906</v>
+      </c>
+      <c r="F11">
+        <v>0.03451476490117054</v>
+      </c>
+      <c r="G11">
+        <v>-0.02619392549349818</v>
+      </c>
+      <c r="H11">
+        <v>-0.07529714659720621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06090405086635451</v>
+        <v>0.06946256765992084</v>
       </c>
       <c r="C12">
-        <v>-0.05034492489075149</v>
+        <v>0.0331018391355837</v>
       </c>
       <c r="D12">
-        <v>0.04583389787195614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04967620974157105</v>
+      </c>
+      <c r="E12">
+        <v>-0.01335364720769485</v>
+      </c>
+      <c r="F12">
+        <v>0.0231498168015819</v>
+      </c>
+      <c r="G12">
+        <v>-0.0128429421864866</v>
+      </c>
+      <c r="H12">
+        <v>-0.03069964035926709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06579447134684276</v>
+        <v>0.06666846096170623</v>
       </c>
       <c r="C13">
-        <v>-0.03503287105015096</v>
+        <v>0.01898558401406684</v>
       </c>
       <c r="D13">
-        <v>0.04744808770198374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0407534478682824</v>
+      </c>
+      <c r="E13">
+        <v>-0.01256809452856461</v>
+      </c>
+      <c r="F13">
+        <v>0.02168721623067699</v>
+      </c>
+      <c r="G13">
+        <v>-0.0002526729107859311</v>
+      </c>
+      <c r="H13">
+        <v>-0.053706321993362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03319563563791758</v>
+        <v>0.03897471903051401</v>
       </c>
       <c r="C14">
-        <v>-0.03154228971590718</v>
+        <v>0.02588476803994166</v>
       </c>
       <c r="D14">
-        <v>-0.00551535449067461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01509421369565218</v>
+      </c>
+      <c r="E14">
+        <v>-0.03242231627249532</v>
+      </c>
+      <c r="F14">
+        <v>0.01602500752724193</v>
+      </c>
+      <c r="G14">
+        <v>-0.02024881011947117</v>
+      </c>
+      <c r="H14">
+        <v>-0.05441494843857881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04032664785999437</v>
+        <v>0.03995336014667748</v>
       </c>
       <c r="C15">
-        <v>-0.008381335143275446</v>
+        <v>0.001509944015429708</v>
       </c>
       <c r="D15">
-        <v>0.02027585518705224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008141645632649668</v>
+      </c>
+      <c r="E15">
+        <v>-0.03768223650344006</v>
+      </c>
+      <c r="F15">
+        <v>0.000727829778486108</v>
+      </c>
+      <c r="G15">
+        <v>-0.02878440787146373</v>
+      </c>
+      <c r="H15">
+        <v>-0.02513749887815627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06096219678576691</v>
+        <v>0.07168401861853943</v>
       </c>
       <c r="C16">
-        <v>-0.03902539954919068</v>
+        <v>0.02366392184842753</v>
       </c>
       <c r="D16">
-        <v>0.05054828752858508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06202694449614417</v>
+      </c>
+      <c r="E16">
+        <v>-0.005743407649770281</v>
+      </c>
+      <c r="F16">
+        <v>0.03098355096772803</v>
+      </c>
+      <c r="G16">
+        <v>-0.01178905590019339</v>
+      </c>
+      <c r="H16">
+        <v>-0.0484743200313006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06348889531574932</v>
+        <v>0.06233317684040813</v>
       </c>
       <c r="C20">
-        <v>-0.02366009002111276</v>
+        <v>0.00636906465991742</v>
       </c>
       <c r="D20">
-        <v>0.04773846677527174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04123364959917103</v>
+      </c>
+      <c r="E20">
+        <v>-0.01755928259259623</v>
+      </c>
+      <c r="F20">
+        <v>0.0273347533599711</v>
+      </c>
+      <c r="G20">
+        <v>-0.01874777462209946</v>
+      </c>
+      <c r="H20">
+        <v>-0.04441523593291766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02687270618369095</v>
+        <v>0.02675869258958514</v>
       </c>
       <c r="C21">
-        <v>0.001607498327272968</v>
+        <v>-0.009331598414291611</v>
       </c>
       <c r="D21">
-        <v>0.02049945257360749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02265381660814817</v>
+      </c>
+      <c r="E21">
+        <v>-0.04424359714333998</v>
+      </c>
+      <c r="F21">
+        <v>-0.008429375934480334</v>
+      </c>
+      <c r="G21">
+        <v>-0.004578132203766403</v>
+      </c>
+      <c r="H21">
+        <v>0.04835684805175908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07835822757283836</v>
+        <v>0.06945543387929549</v>
       </c>
       <c r="C22">
-        <v>-0.05779070865987611</v>
+        <v>0.03125356995216551</v>
       </c>
       <c r="D22">
-        <v>0.1384779369859974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09665066578744384</v>
+      </c>
+      <c r="E22">
+        <v>-0.5998884900050719</v>
+      </c>
+      <c r="F22">
+        <v>-0.104446442683635</v>
+      </c>
+      <c r="G22">
+        <v>0.1413138721839499</v>
+      </c>
+      <c r="H22">
+        <v>0.1440449385287919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07932855096274102</v>
+        <v>0.07035077817849543</v>
       </c>
       <c r="C23">
-        <v>-0.05650175042957285</v>
+        <v>0.02995095586248874</v>
       </c>
       <c r="D23">
-        <v>0.1398028443507482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09769696402398653</v>
+      </c>
+      <c r="E23">
+        <v>-0.6021020283127341</v>
+      </c>
+      <c r="F23">
+        <v>-0.1038832480486399</v>
+      </c>
+      <c r="G23">
+        <v>0.1366338169049953</v>
+      </c>
+      <c r="H23">
+        <v>0.1389104324208555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07564173330916342</v>
+        <v>0.08047805221981008</v>
       </c>
       <c r="C24">
-        <v>-0.05001125456963053</v>
+        <v>0.02866213371032395</v>
       </c>
       <c r="D24">
-        <v>0.06225109733653712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06409886727505661</v>
+      </c>
+      <c r="E24">
+        <v>-0.01442518725026311</v>
+      </c>
+      <c r="F24">
+        <v>0.03892886194901619</v>
+      </c>
+      <c r="G24">
+        <v>-0.02264834979029791</v>
+      </c>
+      <c r="H24">
+        <v>-0.03641816665472679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07457778067908821</v>
+        <v>0.07931450432658793</v>
       </c>
       <c r="C25">
-        <v>-0.05279928481298786</v>
+        <v>0.03316199391805422</v>
       </c>
       <c r="D25">
-        <v>0.06519115363024902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05264746981210586</v>
+      </c>
+      <c r="E25">
+        <v>-0.02170787206453425</v>
+      </c>
+      <c r="F25">
+        <v>0.03260892351200843</v>
+      </c>
+      <c r="G25">
+        <v>-0.03400791146853764</v>
+      </c>
+      <c r="H25">
+        <v>-0.04086009672565983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04487342237689358</v>
+        <v>0.04481948297625418</v>
       </c>
       <c r="C26">
-        <v>-0.008172152401828175</v>
+        <v>-0.001674120804093447</v>
       </c>
       <c r="D26">
-        <v>0.01641327304857004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02139269763551106</v>
+      </c>
+      <c r="E26">
+        <v>-0.04138557113045658</v>
+      </c>
+      <c r="F26">
+        <v>0.03861230325624188</v>
+      </c>
+      <c r="G26">
+        <v>-0.007502315567384277</v>
+      </c>
+      <c r="H26">
+        <v>-0.05430193678125936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05374562561751424</v>
+        <v>0.07145108896654689</v>
       </c>
       <c r="C28">
-        <v>-0.07210747384845907</v>
+        <v>0.1110766755545663</v>
       </c>
       <c r="D28">
-        <v>-0.3015513746936994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2972038452638959</v>
+      </c>
+      <c r="E28">
+        <v>-0.03415599466409882</v>
+      </c>
+      <c r="F28">
+        <v>0.06245247386439498</v>
+      </c>
+      <c r="G28">
+        <v>-0.02720099683208639</v>
+      </c>
+      <c r="H28">
+        <v>0.04189358138643132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04408198468651756</v>
+        <v>0.0467192684412458</v>
       </c>
       <c r="C29">
-        <v>-0.02898111378756395</v>
+        <v>0.02193560565632011</v>
       </c>
       <c r="D29">
-        <v>0.008961048393241371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01371260943174677</v>
+      </c>
+      <c r="E29">
+        <v>-0.06444577988441176</v>
+      </c>
+      <c r="F29">
+        <v>0.01336808199556273</v>
+      </c>
+      <c r="G29">
+        <v>-0.0105699595939538</v>
+      </c>
+      <c r="H29">
+        <v>-0.07657685639303044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1283925594345688</v>
+        <v>0.1267039882933299</v>
       </c>
       <c r="C30">
-        <v>-0.08642285017943868</v>
+        <v>0.05286079182062417</v>
       </c>
       <c r="D30">
-        <v>0.1006227321510445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08019267233128569</v>
+      </c>
+      <c r="E30">
+        <v>-0.07791380488069054</v>
+      </c>
+      <c r="F30">
+        <v>0.01864833824019323</v>
+      </c>
+      <c r="G30">
+        <v>-0.06332851343882262</v>
+      </c>
+      <c r="H30">
+        <v>0.05017924193023163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04640423495321415</v>
+        <v>0.04857328148316777</v>
       </c>
       <c r="C31">
-        <v>-0.02221340079992548</v>
+        <v>0.01038715763042448</v>
       </c>
       <c r="D31">
-        <v>0.02580595776668295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0340563982515004</v>
+      </c>
+      <c r="E31">
+        <v>-0.02448665476333879</v>
+      </c>
+      <c r="F31">
+        <v>0.005763343197036317</v>
+      </c>
+      <c r="G31">
+        <v>0.01168734518401679</v>
+      </c>
+      <c r="H31">
+        <v>-0.06736352941513453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03817348665505424</v>
+        <v>0.04023462596029222</v>
       </c>
       <c r="C32">
-        <v>-0.02392059201854758</v>
+        <v>0.02115172087383646</v>
       </c>
       <c r="D32">
-        <v>0.02209024855358263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.009465604351220257</v>
+      </c>
+      <c r="E32">
+        <v>-0.05605123156138094</v>
+      </c>
+      <c r="F32">
+        <v>-0.009522744725788651</v>
+      </c>
+      <c r="G32">
+        <v>-0.034620273994732</v>
+      </c>
+      <c r="H32">
+        <v>-0.02685783405333277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08553475736315101</v>
+        <v>0.09402680053798633</v>
       </c>
       <c r="C33">
-        <v>-0.03794065982159715</v>
+        <v>0.01901272566002694</v>
       </c>
       <c r="D33">
-        <v>0.05545480066461674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04864771931024592</v>
+      </c>
+      <c r="E33">
+        <v>-0.01794887693681468</v>
+      </c>
+      <c r="F33">
+        <v>0.009567796265715986</v>
+      </c>
+      <c r="G33">
+        <v>-0.005828000398290651</v>
+      </c>
+      <c r="H33">
+        <v>-0.05783641731604223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05903753342568696</v>
+        <v>0.06419385939564778</v>
       </c>
       <c r="C34">
-        <v>-0.02439695305228008</v>
+        <v>0.00836524814917719</v>
       </c>
       <c r="D34">
-        <v>0.0538533661002124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04992510235324944</v>
+      </c>
+      <c r="E34">
+        <v>-0.01013234019950303</v>
+      </c>
+      <c r="F34">
+        <v>0.02214351229358573</v>
+      </c>
+      <c r="G34">
+        <v>-0.01414894513562191</v>
+      </c>
+      <c r="H34">
+        <v>-0.05075321377736692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.036280648910238</v>
+        <v>0.03819285497275855</v>
       </c>
       <c r="C35">
-        <v>-0.00706094312138185</v>
+        <v>0.0008947412342420664</v>
       </c>
       <c r="D35">
-        <v>0.01728766171493013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01447694918885586</v>
+      </c>
+      <c r="E35">
+        <v>-0.0215634160703046</v>
+      </c>
+      <c r="F35">
+        <v>-0.01811730827363263</v>
+      </c>
+      <c r="G35">
+        <v>0.005746470039691348</v>
+      </c>
+      <c r="H35">
+        <v>-0.02025831516582767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02405214695515215</v>
+        <v>0.0290120210670222</v>
       </c>
       <c r="C36">
-        <v>-0.01731660210808754</v>
+        <v>0.01323431848484767</v>
       </c>
       <c r="D36">
-        <v>0.02155750514889721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01744356787718732</v>
+      </c>
+      <c r="E36">
+        <v>-0.03104758672236295</v>
+      </c>
+      <c r="F36">
+        <v>0.02543600098559459</v>
+      </c>
+      <c r="G36">
+        <v>0.001587303374442441</v>
+      </c>
+      <c r="H36">
+        <v>-0.04086906208763404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04310196134389642</v>
+        <v>0.04449266210281184</v>
       </c>
       <c r="C38">
-        <v>-0.00230316748889679</v>
+        <v>-0.005534425319489916</v>
       </c>
       <c r="D38">
-        <v>0.02051327143157338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02167315796615221</v>
+      </c>
+      <c r="E38">
+        <v>-0.05336922609725508</v>
+      </c>
+      <c r="F38">
+        <v>-0.008380173539089162</v>
+      </c>
+      <c r="G38">
+        <v>-0.002929069006128303</v>
+      </c>
+      <c r="H38">
+        <v>-0.02231153181191871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0921101687300684</v>
+        <v>0.09988854757179386</v>
       </c>
       <c r="C39">
-        <v>-0.06715440355510761</v>
+        <v>0.04398758416555885</v>
       </c>
       <c r="D39">
-        <v>0.05909260509821188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06936893925063879</v>
+      </c>
+      <c r="E39">
+        <v>-0.006640851240350898</v>
+      </c>
+      <c r="F39">
+        <v>0.0009737723206705648</v>
+      </c>
+      <c r="G39">
+        <v>-0.04776111005721489</v>
+      </c>
+      <c r="H39">
+        <v>-0.03049090388619472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0796595204225122</v>
+        <v>0.06288447993434043</v>
       </c>
       <c r="C40">
-        <v>-0.0341244653903164</v>
+        <v>0.004789570806824547</v>
       </c>
       <c r="D40">
-        <v>0.009277467122077578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03259935402809919</v>
+      </c>
+      <c r="E40">
+        <v>-0.04406381908526009</v>
+      </c>
+      <c r="F40">
+        <v>-0.0419132102818867</v>
+      </c>
+      <c r="G40">
+        <v>-0.02625168784375175</v>
+      </c>
+      <c r="H40">
+        <v>0.09747302372856419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04380089257621785</v>
+        <v>0.04544555205585826</v>
       </c>
       <c r="C41">
-        <v>-0.005344988569024153</v>
+        <v>-0.005244916578785643</v>
       </c>
       <c r="D41">
-        <v>0.03754465504704322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03267252163589179</v>
+      </c>
+      <c r="E41">
+        <v>-0.003844299296211482</v>
+      </c>
+      <c r="F41">
+        <v>-0.01443589161827854</v>
+      </c>
+      <c r="G41">
+        <v>-0.01331846880756155</v>
+      </c>
+      <c r="H41">
+        <v>-0.02311073478541927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05271784150595026</v>
+        <v>0.05970761132255346</v>
       </c>
       <c r="C43">
-        <v>-0.0257094674801366</v>
+        <v>0.01537598164925976</v>
       </c>
       <c r="D43">
-        <v>0.01724272038053697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02950805241210472</v>
+      </c>
+      <c r="E43">
+        <v>-0.02316270033602198</v>
+      </c>
+      <c r="F43">
+        <v>0.01392569839244675</v>
+      </c>
+      <c r="G43">
+        <v>0.01219986624993244</v>
+      </c>
+      <c r="H43">
+        <v>-0.06488376421979571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09685129660574347</v>
+        <v>0.09367412918489947</v>
       </c>
       <c r="C44">
-        <v>-0.08290580112142752</v>
+        <v>0.05234098683295919</v>
       </c>
       <c r="D44">
-        <v>0.07521970291799764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07120772703332867</v>
+      </c>
+      <c r="E44">
+        <v>-0.0737166786916975</v>
+      </c>
+      <c r="F44">
+        <v>0.08132858732872483</v>
+      </c>
+      <c r="G44">
+        <v>-0.03166292610293629</v>
+      </c>
+      <c r="H44">
+        <v>-0.05286852585927314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02743790222736074</v>
+        <v>0.0348574918457222</v>
       </c>
       <c r="C46">
-        <v>-0.01558766577298208</v>
+        <v>0.009688015215331289</v>
       </c>
       <c r="D46">
-        <v>0.0318092689012467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03718640369771811</v>
+      </c>
+      <c r="E46">
+        <v>-0.03466309936795758</v>
+      </c>
+      <c r="F46">
+        <v>0.01338520908562361</v>
+      </c>
+      <c r="G46">
+        <v>-0.00506498530908301</v>
+      </c>
+      <c r="H46">
+        <v>-0.02417406698204617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03474551873967681</v>
+        <v>0.04115748521019821</v>
       </c>
       <c r="C47">
-        <v>-0.02272468733191491</v>
+        <v>0.01794240439489174</v>
       </c>
       <c r="D47">
-        <v>0.0009298611820675519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006595665101949783</v>
+      </c>
+      <c r="E47">
+        <v>-0.04468435779936722</v>
+      </c>
+      <c r="F47">
+        <v>-0.01084428168605737</v>
+      </c>
+      <c r="G47">
+        <v>0.02805494736161351</v>
+      </c>
+      <c r="H47">
+        <v>-0.02284062628114259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03507234369783994</v>
+        <v>0.03872080744781935</v>
       </c>
       <c r="C48">
-        <v>-0.01753959240114461</v>
+        <v>0.009751908633686582</v>
       </c>
       <c r="D48">
-        <v>0.0334165627420038</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02100986363257471</v>
+      </c>
+      <c r="E48">
+        <v>-0.04251601624787451</v>
+      </c>
+      <c r="F48">
+        <v>0.009844534425771857</v>
+      </c>
+      <c r="G48">
+        <v>-0.01815246155102471</v>
+      </c>
+      <c r="H48">
+        <v>-0.02598801369104076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1644068981091857</v>
+        <v>0.1973144209311155</v>
       </c>
       <c r="C49">
-        <v>-0.04765064874648808</v>
+        <v>0.03026029314196687</v>
       </c>
       <c r="D49">
-        <v>0.006961034800319787</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02778626714090504</v>
+      </c>
+      <c r="E49">
+        <v>0.1725007386185175</v>
+      </c>
+      <c r="F49">
+        <v>0.05029601883468968</v>
+      </c>
+      <c r="G49">
+        <v>0.1231278756006672</v>
+      </c>
+      <c r="H49">
+        <v>0.2572199351267366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04120160631018591</v>
+        <v>0.04504390310667884</v>
       </c>
       <c r="C50">
-        <v>-0.01874462273040601</v>
+        <v>0.009092117071810226</v>
       </c>
       <c r="D50">
-        <v>0.0455441761886627</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03962046270464776</v>
+      </c>
+      <c r="E50">
+        <v>-0.04124282635959371</v>
+      </c>
+      <c r="F50">
+        <v>0.006582023398525191</v>
+      </c>
+      <c r="G50">
+        <v>0.004504789600157993</v>
+      </c>
+      <c r="H50">
+        <v>-0.07092293368975183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02895715031083818</v>
+        <v>0.03412012997784162</v>
       </c>
       <c r="C51">
-        <v>-0.01113130744225487</v>
+        <v>0.006889893970565119</v>
       </c>
       <c r="D51">
-        <v>0.001633225363936313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002400040984701426</v>
+      </c>
+      <c r="E51">
+        <v>-0.007875775674488172</v>
+      </c>
+      <c r="F51">
+        <v>0.01031040767211396</v>
+      </c>
+      <c r="G51">
+        <v>0.01374204342796696</v>
+      </c>
+      <c r="H51">
+        <v>0.01704311783247854</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1570222361610241</v>
+        <v>0.1612750819373118</v>
       </c>
       <c r="C53">
-        <v>-0.07103154408362818</v>
+        <v>0.0433300486644324</v>
       </c>
       <c r="D53">
-        <v>0.003100739919882204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02724119560724534</v>
+      </c>
+      <c r="E53">
+        <v>0.03515211255976045</v>
+      </c>
+      <c r="F53">
+        <v>-0.0004239307016933388</v>
+      </c>
+      <c r="G53">
+        <v>-0.01092702685398347</v>
+      </c>
+      <c r="H53">
+        <v>-0.1985402558592546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0568185631621724</v>
+        <v>0.05802894629350853</v>
       </c>
       <c r="C54">
-        <v>-0.0213214363382053</v>
+        <v>0.01183436064830063</v>
       </c>
       <c r="D54">
-        <v>0.01601605245618944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01460369606029672</v>
+      </c>
+      <c r="E54">
+        <v>-0.05529078767947089</v>
+      </c>
+      <c r="F54">
+        <v>0.01285984183611743</v>
+      </c>
+      <c r="G54">
+        <v>-0.04303005993498198</v>
+      </c>
+      <c r="H54">
+        <v>-0.03954328003258067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1007027096549124</v>
+        <v>0.1038014902352351</v>
       </c>
       <c r="C55">
-        <v>-0.04849129793091796</v>
+        <v>0.02962929718941203</v>
       </c>
       <c r="D55">
-        <v>0.02597084231384456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03078319271117325</v>
+      </c>
+      <c r="E55">
+        <v>-0.005954587319258815</v>
+      </c>
+      <c r="F55">
+        <v>0.009872604658194794</v>
+      </c>
+      <c r="G55">
+        <v>-0.0153687788535967</v>
+      </c>
+      <c r="H55">
+        <v>-0.1540715934719505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1521194231231767</v>
+        <v>0.158740296443546</v>
       </c>
       <c r="C56">
-        <v>-0.08186948791849945</v>
+        <v>0.05153270080243177</v>
       </c>
       <c r="D56">
-        <v>0.01011298373084867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04058701374598075</v>
+      </c>
+      <c r="E56">
+        <v>0.01995656131477805</v>
+      </c>
+      <c r="F56">
+        <v>0.02067275638557735</v>
+      </c>
+      <c r="G56">
+        <v>-0.009838263033510456</v>
+      </c>
+      <c r="H56">
+        <v>-0.2027540552232616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1312130851304238</v>
+        <v>0.09936662864487449</v>
       </c>
       <c r="C58">
-        <v>0.005507176217606406</v>
+        <v>-0.04918702680167954</v>
       </c>
       <c r="D58">
-        <v>0.01984759612581935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03261820748027106</v>
+      </c>
+      <c r="E58">
+        <v>-0.1443552905286647</v>
+      </c>
+      <c r="F58">
+        <v>0.006266628357146063</v>
+      </c>
+      <c r="G58">
+        <v>0.0870155435592974</v>
+      </c>
+      <c r="H58">
+        <v>0.1864433444113723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1265363869001378</v>
+        <v>0.1482364347217975</v>
       </c>
       <c r="C59">
-        <v>-0.07925432187991013</v>
+        <v>0.1165879765725152</v>
       </c>
       <c r="D59">
-        <v>-0.3841625415398266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3524717978643477</v>
+      </c>
+      <c r="E59">
+        <v>-0.03253795927716838</v>
+      </c>
+      <c r="F59">
+        <v>0.003738073538129236</v>
+      </c>
+      <c r="G59">
+        <v>0.01248000550915747</v>
+      </c>
+      <c r="H59">
+        <v>-0.01366497926720702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2095610527339503</v>
+        <v>0.2385079081061471</v>
       </c>
       <c r="C60">
-        <v>-0.08933691596959845</v>
+        <v>0.05712345952131365</v>
       </c>
       <c r="D60">
-        <v>0.01820977492794586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04855059210044892</v>
+      </c>
+      <c r="E60">
+        <v>0.1169529363741185</v>
+      </c>
+      <c r="F60">
+        <v>0.05556207948261713</v>
+      </c>
+      <c r="G60">
+        <v>0.01028082002376304</v>
+      </c>
+      <c r="H60">
+        <v>0.1462402844136937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08240079912097963</v>
+        <v>0.08771751613315251</v>
       </c>
       <c r="C61">
-        <v>-0.04663945558137355</v>
+        <v>0.02904917975103098</v>
       </c>
       <c r="D61">
-        <v>0.03454679630458653</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04396318732206779</v>
+      </c>
+      <c r="E61">
+        <v>-0.006235502816288097</v>
+      </c>
+      <c r="F61">
+        <v>0.001282012878504754</v>
+      </c>
+      <c r="G61">
+        <v>-0.01648273105165718</v>
+      </c>
+      <c r="H61">
+        <v>-0.06551161319364171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1308414387328071</v>
+        <v>0.1352589242431314</v>
       </c>
       <c r="C62">
-        <v>-0.05548347233037605</v>
+        <v>0.02710352782091272</v>
       </c>
       <c r="D62">
-        <v>0.01922027198964785</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04773657515611866</v>
+      </c>
+      <c r="E62">
+        <v>0.05906249547522056</v>
+      </c>
+      <c r="F62">
+        <v>-0.008441818745451239</v>
+      </c>
+      <c r="G62">
+        <v>-0.06078666918265717</v>
+      </c>
+      <c r="H62">
+        <v>-0.2094233121398429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05227428821041927</v>
+        <v>0.05195028405931114</v>
       </c>
       <c r="C63">
-        <v>-0.02294373301878797</v>
+        <v>0.01305075230767619</v>
       </c>
       <c r="D63">
-        <v>0.02829012528330541</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02151416864755903</v>
+      </c>
+      <c r="E63">
+        <v>-0.04810076113864251</v>
+      </c>
+      <c r="F63">
+        <v>-0.002638131752089574</v>
+      </c>
+      <c r="G63">
+        <v>-0.0240793674013684</v>
+      </c>
+      <c r="H63">
+        <v>-0.03593657118533742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1049276510557867</v>
+        <v>0.1088922732755775</v>
       </c>
       <c r="C64">
-        <v>-0.0281020717957767</v>
+        <v>0.01170856510228104</v>
       </c>
       <c r="D64">
-        <v>0.03317829635387607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02977525251472118</v>
+      </c>
+      <c r="E64">
+        <v>-0.03572498333775623</v>
+      </c>
+      <c r="F64">
+        <v>0.04363949656942125</v>
+      </c>
+      <c r="G64">
+        <v>-0.05852432896213959</v>
+      </c>
+      <c r="H64">
+        <v>-0.02772430893710147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1306616541927949</v>
+        <v>0.1299284356093597</v>
       </c>
       <c r="C65">
-        <v>-0.05660203385560979</v>
+        <v>0.03678992910366319</v>
       </c>
       <c r="D65">
-        <v>0.004821963331417288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01340391100260825</v>
+      </c>
+      <c r="E65">
+        <v>0.005888776159800398</v>
+      </c>
+      <c r="F65">
+        <v>0.05896346978050271</v>
+      </c>
+      <c r="G65">
+        <v>-0.06880277800807302</v>
+      </c>
+      <c r="H65">
+        <v>0.1412525295748807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1491885918672871</v>
+        <v>0.1517703214933464</v>
       </c>
       <c r="C66">
-        <v>-0.06508603582313276</v>
+        <v>0.02991527841352874</v>
       </c>
       <c r="D66">
-        <v>0.09920025422820103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1020288221648477</v>
+      </c>
+      <c r="E66">
+        <v>0.02043050334719855</v>
+      </c>
+      <c r="F66">
+        <v>0.002427703333685123</v>
+      </c>
+      <c r="G66">
+        <v>-0.05976650450314008</v>
+      </c>
+      <c r="H66">
+        <v>-0.0915834712011213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07586608300375541</v>
+        <v>0.08494931884607516</v>
       </c>
       <c r="C67">
-        <v>-0.009121715200730459</v>
+        <v>-0.002207485141590533</v>
       </c>
       <c r="D67">
-        <v>0.02380211784481728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03305288552846888</v>
+      </c>
+      <c r="E67">
+        <v>-0.01784741316118209</v>
+      </c>
+      <c r="F67">
+        <v>0.0136914390312259</v>
+      </c>
+      <c r="G67">
+        <v>0.01184705323458561</v>
+      </c>
+      <c r="H67">
+        <v>-0.03014724208223233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0607389235751797</v>
+        <v>0.06592801837910908</v>
       </c>
       <c r="C68">
-        <v>-0.0517449633566085</v>
+        <v>0.08407124783302525</v>
       </c>
       <c r="D68">
-        <v>-0.2572306929559485</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2630850825681297</v>
+      </c>
+      <c r="E68">
+        <v>-0.04029788596663285</v>
+      </c>
+      <c r="F68">
+        <v>0.01352459463533256</v>
+      </c>
+      <c r="G68">
+        <v>0.007134936648564544</v>
+      </c>
+      <c r="H68">
+        <v>-0.0171068786876494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05279140436133173</v>
+        <v>0.05218684686702192</v>
       </c>
       <c r="C69">
-        <v>-0.0146923633574115</v>
+        <v>0.002542252472780881</v>
       </c>
       <c r="D69">
-        <v>0.02663775762760013</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01999639215224166</v>
+      </c>
+      <c r="E69">
+        <v>-0.02605417186542833</v>
+      </c>
+      <c r="F69">
+        <v>-0.01345634316831456</v>
+      </c>
+      <c r="G69">
+        <v>0.003457727607318283</v>
+      </c>
+      <c r="H69">
+        <v>-0.04797524628561618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002417841670080447</v>
+        <v>0.02692855637388382</v>
       </c>
       <c r="C70">
-        <v>0.008672755553713855</v>
+        <v>-0.002982482698882945</v>
       </c>
       <c r="D70">
-        <v>-0.01239751390695374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007895273072679334</v>
+      </c>
+      <c r="E70">
+        <v>0.02330581458281932</v>
+      </c>
+      <c r="F70">
+        <v>0.01049642536708806</v>
+      </c>
+      <c r="G70">
+        <v>0.02570721207958207</v>
+      </c>
+      <c r="H70">
+        <v>0.01954271379477836</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05851625735094757</v>
+        <v>0.06981852227549028</v>
       </c>
       <c r="C71">
-        <v>-0.05122200575163714</v>
+        <v>0.09211030647306613</v>
       </c>
       <c r="D71">
-        <v>-0.2928732018150903</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2900037406698826</v>
+      </c>
+      <c r="E71">
+        <v>-0.03746146974874657</v>
+      </c>
+      <c r="F71">
+        <v>0.04527242875681124</v>
+      </c>
+      <c r="G71">
+        <v>0.001673571694572992</v>
+      </c>
+      <c r="H71">
+        <v>-0.01379530825328936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1427155503626077</v>
+        <v>0.1445391973471788</v>
       </c>
       <c r="C72">
-        <v>-0.05662979620334958</v>
+        <v>0.03014783350954203</v>
       </c>
       <c r="D72">
-        <v>0.003348049977613962</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003675250746059509</v>
+      </c>
+      <c r="E72">
+        <v>0.065137442739665</v>
+      </c>
+      <c r="F72">
+        <v>-0.1583325389066718</v>
+      </c>
+      <c r="G72">
+        <v>-0.1167102927196345</v>
+      </c>
+      <c r="H72">
+        <v>0.01823819060095893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2863835874958269</v>
+        <v>0.2870746429112014</v>
       </c>
       <c r="C73">
-        <v>-0.08707021579279867</v>
+        <v>0.01955416119906155</v>
       </c>
       <c r="D73">
-        <v>0.04190322379159069</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0998161991848955</v>
+      </c>
+      <c r="E73">
+        <v>0.2379437566006845</v>
+      </c>
+      <c r="F73">
+        <v>0.07568098093676777</v>
+      </c>
+      <c r="G73">
+        <v>0.2333857267324574</v>
+      </c>
+      <c r="H73">
+        <v>0.4416355099203046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08346860498797679</v>
+        <v>0.09189784324415655</v>
       </c>
       <c r="C74">
-        <v>-0.07469802793095424</v>
+        <v>0.05500720555973757</v>
       </c>
       <c r="D74">
-        <v>0.01137996671170389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04037552922723537</v>
+      </c>
+      <c r="E74">
+        <v>0.005764677925304696</v>
+      </c>
+      <c r="F74">
+        <v>-0.005722941045697137</v>
+      </c>
+      <c r="G74">
+        <v>0.02841324200862101</v>
+      </c>
+      <c r="H74">
+        <v>-0.1259180475592785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1002243148657376</v>
+        <v>0.1037276751663173</v>
       </c>
       <c r="C75">
-        <v>-0.04699235694142539</v>
+        <v>0.02227104789751654</v>
       </c>
       <c r="D75">
-        <v>0.01420155172421842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02575470198916407</v>
+      </c>
+      <c r="E75">
+        <v>0.003186828696868985</v>
+      </c>
+      <c r="F75">
+        <v>0.002234515966306878</v>
+      </c>
+      <c r="G75">
+        <v>0.004944742917606382</v>
+      </c>
+      <c r="H75">
+        <v>-0.1076074785915808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1339585245953002</v>
+        <v>0.1426154721621906</v>
       </c>
       <c r="C76">
-        <v>-0.07676572275105249</v>
+        <v>0.0501179073047532</v>
       </c>
       <c r="D76">
-        <v>0.03131506843411398</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05343307410008899</v>
+      </c>
+      <c r="E76">
+        <v>-0.01395928354763206</v>
+      </c>
+      <c r="F76">
+        <v>0.03391641955415639</v>
+      </c>
+      <c r="G76">
+        <v>-0.01533051919634326</v>
+      </c>
+      <c r="H76">
+        <v>-0.2195438070763641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1176157573838978</v>
+        <v>0.1031512183550052</v>
       </c>
       <c r="C77">
-        <v>-0.008870379996715319</v>
+        <v>-0.02220854864910802</v>
       </c>
       <c r="D77">
-        <v>0.08653430818789301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03903703245590772</v>
+      </c>
+      <c r="E77">
+        <v>-0.05523789318788495</v>
+      </c>
+      <c r="F77">
+        <v>0.1085555859600451</v>
+      </c>
+      <c r="G77">
+        <v>-0.8359653865373455</v>
+      </c>
+      <c r="H77">
+        <v>0.2749583488190451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1078048714618511</v>
+        <v>0.1515589711936882</v>
       </c>
       <c r="C78">
-        <v>-0.03385243480957048</v>
+        <v>0.02872785684756358</v>
       </c>
       <c r="D78">
-        <v>0.08934802794544129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07799709023300147</v>
+      </c>
+      <c r="E78">
+        <v>-0.05023062356811309</v>
+      </c>
+      <c r="F78">
+        <v>0.06639424544915817</v>
+      </c>
+      <c r="G78">
+        <v>-0.05750218488462594</v>
+      </c>
+      <c r="H78">
+        <v>0.0709081120642063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1489514145374082</v>
+        <v>0.1486255544389849</v>
       </c>
       <c r="C79">
-        <v>-0.0661534044063406</v>
+        <v>0.03251375671790158</v>
       </c>
       <c r="D79">
-        <v>0.02300319889278474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04034133808770354</v>
+      </c>
+      <c r="E79">
+        <v>0.01919776254610595</v>
+      </c>
+      <c r="F79">
+        <v>0.01533834001495757</v>
+      </c>
+      <c r="G79">
+        <v>-0.009418838230102942</v>
+      </c>
+      <c r="H79">
+        <v>-0.1663536912170587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04097561611667854</v>
+        <v>0.04176443298177414</v>
       </c>
       <c r="C80">
-        <v>-0.0193859151263083</v>
+        <v>0.01186381303201936</v>
       </c>
       <c r="D80">
-        <v>0.0320901648022819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01736123647438124</v>
+      </c>
+      <c r="E80">
+        <v>0.03067241722537129</v>
+      </c>
+      <c r="F80">
+        <v>0.002912897743676598</v>
+      </c>
+      <c r="G80">
+        <v>0.02497573535526705</v>
+      </c>
+      <c r="H80">
+        <v>-0.03571102077782009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1215134946550433</v>
+        <v>0.1233731222621509</v>
       </c>
       <c r="C81">
-        <v>-0.05670997576332488</v>
+        <v>0.03117832795103849</v>
       </c>
       <c r="D81">
-        <v>0.03235316851123661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03195150409181373</v>
+      </c>
+      <c r="E81">
+        <v>-0.006669915794679946</v>
+      </c>
+      <c r="F81">
+        <v>0.003062539881435605</v>
+      </c>
+      <c r="G81">
+        <v>0.027764301590791</v>
+      </c>
+      <c r="H81">
+        <v>-0.1503961892719394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1326541002009641</v>
+        <v>0.1311779730080674</v>
       </c>
       <c r="C82">
-        <v>-0.07014256378304401</v>
+        <v>0.04271389793366819</v>
       </c>
       <c r="D82">
-        <v>0.01171847733071221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03866611511982566</v>
+      </c>
+      <c r="E82">
+        <v>0.02412447626370974</v>
+      </c>
+      <c r="F82">
+        <v>0.04210532549752078</v>
+      </c>
+      <c r="G82">
+        <v>0.0104206346950923</v>
+      </c>
+      <c r="H82">
+        <v>-0.2343880061113885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06923581822816018</v>
+        <v>0.08235393796721323</v>
       </c>
       <c r="C83">
-        <v>0.02774663453347418</v>
+        <v>-0.03950177896967261</v>
       </c>
       <c r="D83">
-        <v>0.01353065988447287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02075956223215291</v>
+      </c>
+      <c r="E83">
+        <v>-0.02093417445018344</v>
+      </c>
+      <c r="F83">
+        <v>0.04548104124039884</v>
+      </c>
+      <c r="G83">
+        <v>0.06746188955766792</v>
+      </c>
+      <c r="H83">
+        <v>0.02249122575011273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02928145764644797</v>
+        <v>0.03650800529887607</v>
       </c>
       <c r="C84">
-        <v>-0.02846193133496563</v>
+        <v>0.02046264526150517</v>
       </c>
       <c r="D84">
-        <v>0.03400115757555645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03489639502162808</v>
+      </c>
+      <c r="E84">
+        <v>-0.02985903540333657</v>
+      </c>
+      <c r="F84">
+        <v>-0.0435004381602136</v>
+      </c>
+      <c r="G84">
+        <v>0.05375485326643308</v>
+      </c>
+      <c r="H84">
+        <v>-0.02232229992936033</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1178790558580265</v>
+        <v>0.1208618629005904</v>
       </c>
       <c r="C85">
-        <v>-0.04048964074993115</v>
+        <v>0.01683261361137553</v>
       </c>
       <c r="D85">
-        <v>0.05198053457491957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03933932146418469</v>
+      </c>
+      <c r="E85">
+        <v>-0.01538111181954173</v>
+      </c>
+      <c r="F85">
+        <v>0.02710350449308909</v>
+      </c>
+      <c r="G85">
+        <v>0.009160958121149124</v>
+      </c>
+      <c r="H85">
+        <v>-0.1441172007476197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05320386655145815</v>
+        <v>0.05658937522513639</v>
       </c>
       <c r="C86">
-        <v>-0.02120850259146502</v>
+        <v>0.007928224359735701</v>
       </c>
       <c r="D86">
-        <v>0.06239634802738312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03448281864859763</v>
+      </c>
+      <c r="E86">
+        <v>-0.04395242304274943</v>
+      </c>
+      <c r="F86">
+        <v>0.03279654305154108</v>
+      </c>
+      <c r="G86">
+        <v>0.04246454786672665</v>
+      </c>
+      <c r="H86">
+        <v>0.03034392816817636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1230102985309073</v>
+        <v>0.1249129669370575</v>
       </c>
       <c r="C87">
-        <v>-0.06581749949749557</v>
+        <v>0.03043249278385497</v>
       </c>
       <c r="D87">
-        <v>0.07131438849228172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06993241684217136</v>
+      </c>
+      <c r="E87">
+        <v>-0.02267205999201017</v>
+      </c>
+      <c r="F87">
+        <v>0.01982035602922299</v>
+      </c>
+      <c r="G87">
+        <v>-0.1277628087200041</v>
+      </c>
+      <c r="H87">
+        <v>0.07069229787520483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05360948574213015</v>
+        <v>0.06221864804576872</v>
       </c>
       <c r="C88">
-        <v>-0.02794469865753842</v>
+        <v>0.01734793235162034</v>
       </c>
       <c r="D88">
-        <v>0.02712312348533529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03892977358240593</v>
+      </c>
+      <c r="E88">
+        <v>-0.01503727538936204</v>
+      </c>
+      <c r="F88">
+        <v>0.01347342383833935</v>
+      </c>
+      <c r="G88">
+        <v>-0.01353572768728429</v>
+      </c>
+      <c r="H88">
+        <v>-0.03943142941534263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0910084391361639</v>
+        <v>0.1085517378608198</v>
       </c>
       <c r="C89">
-        <v>-0.07252596660107109</v>
+        <v>0.1166781642757406</v>
       </c>
       <c r="D89">
-        <v>-0.3335198435033556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3396405334477973</v>
+      </c>
+      <c r="E89">
+        <v>-0.07383441802928298</v>
+      </c>
+      <c r="F89">
+        <v>0.06805448027880419</v>
+      </c>
+      <c r="G89">
+        <v>0.0302041130112098</v>
+      </c>
+      <c r="H89">
+        <v>-0.00723529962146663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07374007083458888</v>
+        <v>0.08640867667160419</v>
       </c>
       <c r="C90">
-        <v>-0.06258236405928326</v>
+        <v>0.09779248949192927</v>
       </c>
       <c r="D90">
-        <v>-0.2839167776908942</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2799593146907453</v>
+      </c>
+      <c r="E90">
+        <v>-0.05179124585171643</v>
+      </c>
+      <c r="F90">
+        <v>0.03355446236580655</v>
+      </c>
+      <c r="G90">
+        <v>-0.02106548879843547</v>
+      </c>
+      <c r="H90">
+        <v>0.005870486201346265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08899830340042209</v>
+        <v>0.0909077389500461</v>
       </c>
       <c r="C91">
-        <v>-0.0498156608705882</v>
+        <v>0.0270949712012855</v>
       </c>
       <c r="D91">
-        <v>0.02153805296365305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03407544166712088</v>
+      </c>
+      <c r="E91">
+        <v>-0.004423651917267236</v>
+      </c>
+      <c r="F91">
+        <v>-0.001853213588597374</v>
+      </c>
+      <c r="G91">
+        <v>0.02404647973808857</v>
+      </c>
+      <c r="H91">
+        <v>-0.09401199293931113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.0772868201759508</v>
+        <v>0.08983679985775299</v>
       </c>
       <c r="C92">
-        <v>-0.0765882907841028</v>
+        <v>0.1194366053822777</v>
       </c>
       <c r="D92">
-        <v>-0.3410885370840221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3337263835441746</v>
+      </c>
+      <c r="E92">
+        <v>-0.04609310309380681</v>
+      </c>
+      <c r="F92">
+        <v>0.03623209853904065</v>
+      </c>
+      <c r="G92">
+        <v>-0.01160717154966516</v>
+      </c>
+      <c r="H92">
+        <v>-0.01673375419525724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06676718860440722</v>
+        <v>0.08300236944071172</v>
       </c>
       <c r="C93">
-        <v>-0.0660693267961884</v>
+        <v>0.1080011836399462</v>
       </c>
       <c r="D93">
-        <v>-0.3003778689192091</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2950227598430214</v>
+      </c>
+      <c r="E93">
+        <v>-0.02730598625406691</v>
+      </c>
+      <c r="F93">
+        <v>0.03056165780337287</v>
+      </c>
+      <c r="G93">
+        <v>-0.01359126034262746</v>
+      </c>
+      <c r="H93">
+        <v>-0.001235447154644099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.135339346069161</v>
+        <v>0.13000944463009</v>
       </c>
       <c r="C94">
-        <v>-0.04288623632069599</v>
+        <v>0.009687254850247044</v>
       </c>
       <c r="D94">
-        <v>0.04195265940557676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04967539735262815</v>
+      </c>
+      <c r="E94">
+        <v>0.01834100940761634</v>
+      </c>
+      <c r="F94">
+        <v>0.01239105397023013</v>
+      </c>
+      <c r="G94">
+        <v>0.04764405619398677</v>
+      </c>
+      <c r="H94">
+        <v>-0.1116947672275761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1205892604917765</v>
+        <v>0.1293966651006249</v>
       </c>
       <c r="C95">
-        <v>-0.01892268551169529</v>
+        <v>-0.006185110320202788</v>
       </c>
       <c r="D95">
-        <v>0.05597371796702742</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06104754876053417</v>
+      </c>
+      <c r="E95">
+        <v>-0.006114261469464431</v>
+      </c>
+      <c r="F95">
+        <v>0.058384481651238</v>
+      </c>
+      <c r="G95">
+        <v>-0.02463760606293378</v>
+      </c>
+      <c r="H95">
+        <v>0.05514005110579927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2177934083170684</v>
+        <v>0.1981999054248792</v>
       </c>
       <c r="C97">
-        <v>-0.0408775949706435</v>
+        <v>-0.001985862073973367</v>
       </c>
       <c r="D97">
-        <v>-0.07880848041722389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06904437022313566</v>
+      </c>
+      <c r="E97">
+        <v>0.1185237976880775</v>
+      </c>
+      <c r="F97">
+        <v>-0.9225316380663492</v>
+      </c>
+      <c r="G97">
+        <v>-0.0919683334492003</v>
+      </c>
+      <c r="H97">
+        <v>0.03066236838890132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2455737813707112</v>
+        <v>0.273745850708248</v>
       </c>
       <c r="C98">
-        <v>-0.05420865391799658</v>
+        <v>0.0142343970792066</v>
       </c>
       <c r="D98">
-        <v>0.02165342900187708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0499286767493157</v>
+      </c>
+      <c r="E98">
+        <v>0.2028797565608658</v>
+      </c>
+      <c r="F98">
+        <v>0.04917011115470925</v>
+      </c>
+      <c r="G98">
+        <v>0.2885435251244193</v>
+      </c>
+      <c r="H98">
+        <v>0.1681535205263172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3936366741658593</v>
+        <v>0.2568063145579404</v>
       </c>
       <c r="C99">
-        <v>0.9004394417128745</v>
+        <v>-0.922597554131644</v>
       </c>
       <c r="D99">
-        <v>-0.06691659194749515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2209247351375439</v>
+      </c>
+      <c r="E99">
+        <v>-0.06914667656493223</v>
+      </c>
+      <c r="F99">
+        <v>0.06003361517346242</v>
+      </c>
+      <c r="G99">
+        <v>0.006481331225848825</v>
+      </c>
+      <c r="H99">
+        <v>-0.07595682125199568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04387763913834904</v>
+        <v>0.04663752632008578</v>
       </c>
       <c r="C101">
-        <v>-0.02910213993712171</v>
+        <v>0.02217015313270737</v>
       </c>
       <c r="D101">
-        <v>0.009761992538079243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01399495142444022</v>
+      </c>
+      <c r="E101">
+        <v>-0.06436640296176668</v>
+      </c>
+      <c r="F101">
+        <v>0.01291663159748293</v>
+      </c>
+      <c r="G101">
+        <v>-0.009702274393140434</v>
+      </c>
+      <c r="H101">
+        <v>-0.0755652660391906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
